--- a/Data_Sources_and_Preparation/ITC_Trade_Data/Unit Value Analysis for selection of features/841840_Import_Values.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/Unit Value Analysis for selection of features/841840_Import_Values.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Sources_and_Preparation\ITC_Trade_Data\Unit Value Analysis for selection of features\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Units" sheetId="1" r:id="rId1"/>
     <sheet name="After_Unit_conv" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original_Units!$A$1:$P$173</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -85,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,18 +95,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -144,26 +130,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -210,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,10 +219,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,33 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M186" sqref="M186"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,11 +485,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>200404</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="b">
@@ -576,11 +532,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>200405</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="b">
@@ -623,11 +579,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>200406</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="b">
@@ -670,11 +626,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>200407</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="b">
@@ -717,11 +673,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>200408</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="b">
@@ -764,11 +720,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>200409</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="b">
@@ -811,11 +767,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>200410</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="b">
@@ -858,11 +814,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>200411</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="b">
@@ -905,11 +861,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>200412</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="b">
@@ -952,14 +908,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>200501</v>
       </c>
       <c r="B11">
         <v>76</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="b">
@@ -1002,14 +958,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>200502</v>
       </c>
       <c r="B12">
         <v>84</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="b">
@@ -1052,21 +1008,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>200503</v>
       </c>
       <c r="B13">
         <v>79</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1102,14 +1058,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>200504</v>
       </c>
       <c r="B14">
         <v>85</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="b">
@@ -1152,14 +1108,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>200505</v>
       </c>
       <c r="B15">
         <v>79</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="b">
@@ -1202,14 +1158,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>200506</v>
       </c>
       <c r="B16">
         <v>88</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="b">
@@ -1252,21 +1208,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>200507</v>
       </c>
       <c r="B17">
         <v>105</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1302,14 +1258,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>200508</v>
       </c>
       <c r="B18">
         <v>100</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="b">
@@ -1352,21 +1308,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>200509</v>
       </c>
       <c r="B19">
         <v>89</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1383,7 +1339,7 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="b">
@@ -1399,14 +1355,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>200510</v>
       </c>
       <c r="B20">
         <v>88</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="b">
@@ -1430,7 +1386,7 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="b">
@@ -1446,14 +1402,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>200511</v>
       </c>
       <c r="B21">
         <v>92</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="b">
@@ -1477,7 +1433,7 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="b">
@@ -1493,14 +1449,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>200512</v>
       </c>
       <c r="B22">
         <v>97</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="b">
@@ -1540,14 +1496,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>200601</v>
       </c>
       <c r="B23">
         <v>94</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="b">
@@ -1574,7 +1530,7 @@
       <c r="K23">
         <v>7696</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" t="s">
         <v>16</v>
       </c>
       <c r="M23" t="b">
@@ -1590,21 +1546,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>200602</v>
       </c>
       <c r="B24">
         <v>109</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1624,7 +1580,7 @@
       <c r="K24">
         <v>6977</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" t="s">
         <v>16</v>
       </c>
       <c r="M24" t="b">
@@ -1640,21 +1596,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>200603</v>
       </c>
       <c r="B25">
         <v>92</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -1674,7 +1630,7 @@
       <c r="K25">
         <v>9150</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" t="s">
         <v>16</v>
       </c>
       <c r="M25" t="b">
@@ -1690,21 +1646,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>200604</v>
       </c>
       <c r="B26">
         <v>103</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1724,7 +1680,7 @@
       <c r="K26">
         <v>7000</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" t="s">
         <v>16</v>
       </c>
       <c r="M26" t="b">
@@ -1740,14 +1696,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>200605</v>
       </c>
       <c r="B27">
         <v>113</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="b">
@@ -1774,7 +1730,7 @@
       <c r="K27">
         <v>6889</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27" t="b">
@@ -1790,14 +1746,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>200606</v>
       </c>
       <c r="B28">
         <v>89</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="b">
@@ -1824,7 +1780,7 @@
       <c r="K28">
         <v>6250</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" t="s">
         <v>16</v>
       </c>
       <c r="M28" t="b">
@@ -1840,14 +1796,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>200607</v>
       </c>
       <c r="B29">
         <v>90</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="b">
@@ -1874,7 +1830,7 @@
       <c r="K29">
         <v>8455</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" t="s">
         <v>16</v>
       </c>
       <c r="M29" t="b">
@@ -1890,14 +1846,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>200608</v>
       </c>
       <c r="B30">
         <v>92</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="b">
@@ -1924,7 +1880,7 @@
       <c r="K30">
         <v>9391</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" t="s">
         <v>16</v>
       </c>
       <c r="M30" t="b">
@@ -1940,14 +1896,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>200609</v>
       </c>
       <c r="B31">
         <v>109</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="b">
@@ -1974,7 +1930,7 @@
       <c r="K31">
         <v>6786</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" t="s">
         <v>16</v>
       </c>
       <c r="M31" t="b">
@@ -1990,21 +1946,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>200610</v>
       </c>
       <c r="B32">
         <v>102</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -2024,7 +1980,7 @@
       <c r="K32">
         <v>7400</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" t="s">
         <v>16</v>
       </c>
       <c r="M32" t="b">
@@ -2040,21 +1996,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>200611</v>
       </c>
       <c r="B33">
         <v>117</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2074,7 +2030,7 @@
       <c r="K33">
         <v>4283</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" t="s">
         <v>16</v>
       </c>
       <c r="M33" t="b">
@@ -2090,14 +2046,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>200612</v>
       </c>
       <c r="B34">
         <v>135</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="b">
@@ -2124,7 +2080,7 @@
       <c r="K34">
         <v>7520</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" t="s">
         <v>16</v>
       </c>
       <c r="M34" t="b">
@@ -2140,14 +2096,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>200701</v>
       </c>
       <c r="B35">
         <v>121</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="b">
@@ -2174,7 +2130,7 @@
       <c r="K35">
         <v>8290</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" t="s">
         <v>16</v>
       </c>
       <c r="M35" t="b">
@@ -2190,21 +2146,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>200702</v>
       </c>
       <c r="B36">
         <v>149</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -2224,7 +2180,7 @@
       <c r="K36">
         <v>7852</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" t="s">
         <v>16</v>
       </c>
       <c r="M36" t="b">
@@ -2240,14 +2196,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>200703</v>
       </c>
       <c r="B37">
         <v>121</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="b">
@@ -2274,7 +2230,7 @@
       <c r="K37">
         <v>11121</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" t="s">
         <v>16</v>
       </c>
       <c r="M37" t="b">
@@ -2290,21 +2246,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>200704</v>
       </c>
       <c r="B38">
         <v>118</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -2324,7 +2280,7 @@
       <c r="K38">
         <v>8857</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" t="s">
         <v>16</v>
       </c>
       <c r="M38" t="b">
@@ -2340,21 +2296,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>200705</v>
       </c>
       <c r="B39">
         <v>105</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -2374,7 +2330,7 @@
       <c r="K39">
         <v>2321</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" t="s">
         <v>16</v>
       </c>
       <c r="M39" t="b">
@@ -2390,21 +2346,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>200706</v>
       </c>
       <c r="B40">
         <v>93</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -2424,7 +2380,7 @@
       <c r="K40">
         <v>3333</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" t="s">
         <v>16</v>
       </c>
       <c r="M40" t="b">
@@ -2440,14 +2396,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>200707</v>
       </c>
       <c r="B41">
         <v>110</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="b">
@@ -2474,7 +2430,7 @@
       <c r="K41">
         <v>5947</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" t="s">
         <v>16</v>
       </c>
       <c r="M41" t="b">
@@ -2490,14 +2446,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>200708</v>
       </c>
       <c r="B42">
         <v>124</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="b">
@@ -2524,7 +2480,7 @@
       <c r="K42">
         <v>6704</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" t="s">
         <v>16</v>
       </c>
       <c r="M42" t="b">
@@ -2540,14 +2496,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>200709</v>
       </c>
       <c r="B43">
         <v>129</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="b">
@@ -2574,7 +2530,7 @@
       <c r="K43">
         <v>7000</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" t="s">
         <v>16</v>
       </c>
       <c r="M43" t="b">
@@ -2590,14 +2546,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>200710</v>
       </c>
       <c r="B44">
         <v>157</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="b">
@@ -2624,7 +2580,7 @@
       <c r="K44">
         <v>8893</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" t="s">
         <v>16</v>
       </c>
       <c r="M44" t="b">
@@ -2640,14 +2596,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>200711</v>
       </c>
       <c r="B45">
         <v>133</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="b">
@@ -2674,7 +2630,7 @@
       <c r="K45">
         <v>7071</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" t="s">
         <v>16</v>
       </c>
       <c r="M45" t="b">
@@ -2690,14 +2646,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>200712</v>
       </c>
       <c r="B46">
         <v>142</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="b">
@@ -2724,7 +2680,7 @@
       <c r="K46">
         <v>7667</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" t="s">
         <v>16</v>
       </c>
       <c r="M46" t="b">
@@ -2740,21 +2696,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>200801</v>
       </c>
       <c r="B47">
         <v>144</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -2774,7 +2730,7 @@
       <c r="K47">
         <v>8526</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" t="s">
         <v>16</v>
       </c>
       <c r="M47" t="b">
@@ -2790,14 +2746,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>200802</v>
       </c>
       <c r="B48">
         <v>122</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="b">
@@ -2824,7 +2780,7 @@
       <c r="K48">
         <v>8209</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" t="s">
         <v>16</v>
       </c>
       <c r="M48" t="b">
@@ -2840,14 +2796,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>200803</v>
       </c>
       <c r="B49">
         <v>125</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="b">
@@ -2874,7 +2830,7 @@
       <c r="K49">
         <v>7925</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" t="s">
         <v>16</v>
       </c>
       <c r="M49" t="b">
@@ -2890,14 +2846,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>200804</v>
       </c>
       <c r="B50">
         <v>121</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="b">
@@ -2924,7 +2880,7 @@
       <c r="K50">
         <v>6464</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" t="s">
         <v>16</v>
       </c>
       <c r="M50" t="b">
@@ -2940,14 +2896,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>200805</v>
       </c>
       <c r="B51">
         <v>212</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="b">
@@ -2974,7 +2930,7 @@
       <c r="K51">
         <v>8585</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" t="s">
         <v>16</v>
       </c>
       <c r="M51" t="b">
@@ -2990,14 +2946,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>200806</v>
       </c>
       <c r="B52">
         <v>127</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>16</v>
       </c>
       <c r="D52" t="b">
@@ -3024,7 +2980,7 @@
       <c r="K52">
         <v>8241</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" t="s">
         <v>16</v>
       </c>
       <c r="M52" t="b">
@@ -3040,21 +2996,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>200807</v>
       </c>
       <c r="B53">
         <v>144</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -3074,7 +3030,7 @@
       <c r="K53">
         <v>9432</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" t="s">
         <v>16</v>
       </c>
       <c r="M53" t="b">
@@ -3090,21 +3046,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>200808</v>
       </c>
       <c r="B54">
         <v>122</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3124,7 +3080,7 @@
       <c r="K54">
         <v>6688</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" t="s">
         <v>16</v>
       </c>
       <c r="M54" t="b">
@@ -3140,14 +3096,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>200809</v>
       </c>
       <c r="B55">
         <v>116</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="D55" t="b">
@@ -3174,7 +3130,7 @@
       <c r="K55">
         <v>9273</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" t="s">
         <v>16</v>
       </c>
       <c r="M55" t="b">
@@ -3190,14 +3146,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>200810</v>
       </c>
       <c r="B56">
         <v>124</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="b">
@@ -3224,7 +3180,7 @@
       <c r="K56">
         <v>5533</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" t="s">
         <v>16</v>
       </c>
       <c r="M56" t="b">
@@ -3240,14 +3196,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>200811</v>
       </c>
       <c r="B57">
         <v>150</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>16</v>
       </c>
       <c r="D57" t="b">
@@ -3274,7 +3230,7 @@
       <c r="K57">
         <v>12632</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" t="s">
         <v>16</v>
       </c>
       <c r="M57" t="b">
@@ -3290,14 +3246,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>200812</v>
       </c>
       <c r="B58">
         <v>320</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>16</v>
       </c>
       <c r="D58" t="b">
@@ -3324,7 +3280,7 @@
       <c r="K58">
         <v>6500</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" t="s">
         <v>16</v>
       </c>
       <c r="M58" t="b">
@@ -3340,14 +3296,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>200901</v>
       </c>
       <c r="B59">
         <v>130</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>16</v>
       </c>
       <c r="D59" t="b">
@@ -3390,14 +3346,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>200902</v>
       </c>
       <c r="B60">
         <v>127</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>16</v>
       </c>
       <c r="D60" t="b">
@@ -3440,14 +3396,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>200903</v>
       </c>
       <c r="B61">
         <v>91</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" t="b">
@@ -3490,14 +3446,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>200904</v>
       </c>
       <c r="B62">
         <v>113</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>16</v>
       </c>
       <c r="D62" t="b">
@@ -3540,14 +3496,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>200905</v>
       </c>
       <c r="B63">
         <v>130</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>16</v>
       </c>
       <c r="D63" t="b">
@@ -3590,14 +3546,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>200906</v>
       </c>
       <c r="B64">
         <v>100</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>16</v>
       </c>
       <c r="D64" t="b">
@@ -3637,14 +3593,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>200907</v>
       </c>
       <c r="B65">
         <v>97</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>16</v>
       </c>
       <c r="D65" t="b">
@@ -3687,14 +3643,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>200908</v>
       </c>
       <c r="B66">
         <v>129</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>16</v>
       </c>
       <c r="D66" t="b">
@@ -3734,14 +3690,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>200909</v>
       </c>
       <c r="B67">
         <v>127</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>16</v>
       </c>
       <c r="D67" t="b">
@@ -3784,14 +3740,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>200910</v>
       </c>
       <c r="B68">
         <v>123</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>16</v>
       </c>
       <c r="D68" t="b">
@@ -3834,14 +3790,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>200911</v>
       </c>
       <c r="B69">
         <v>119</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>16</v>
       </c>
       <c r="D69" t="b">
@@ -3884,14 +3840,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>200912</v>
       </c>
       <c r="B70">
         <v>153</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>16</v>
       </c>
       <c r="D70" t="b">
@@ -3934,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>201001</v>
       </c>
@@ -3948,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -3984,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>201002</v>
       </c>
@@ -4034,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>201003</v>
       </c>
@@ -4084,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>201004</v>
       </c>
@@ -4134,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>201005</v>
       </c>
@@ -4184,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>201006</v>
       </c>
@@ -4234,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>201007</v>
       </c>
@@ -4284,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>201008</v>
       </c>
@@ -4298,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -4334,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>201009</v>
       </c>
@@ -4384,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>201010</v>
       </c>
@@ -4434,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>201011</v>
       </c>
@@ -4484,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>201012</v>
       </c>
@@ -4531,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>201101</v>
       </c>
@@ -4545,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -4581,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>201102</v>
       </c>
@@ -4595,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -4628,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>201103</v>
       </c>
@@ -4675,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>201104</v>
       </c>
@@ -4725,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>201105</v>
       </c>
@@ -4775,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>201106</v>
       </c>
@@ -4789,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -4825,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>201107</v>
       </c>
@@ -4839,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -4875,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>201108</v>
       </c>
@@ -4925,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>201109</v>
       </c>
@@ -4975,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>201110</v>
       </c>
@@ -5025,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>201111</v>
       </c>
@@ -5072,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>201112</v>
       </c>
@@ -5122,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>201201</v>
       </c>
@@ -5162,14 +5118,14 @@
       <c r="M95" t="b">
         <v>0</v>
       </c>
-      <c r="O95" s="2">
+      <c r="O95">
         <v>0</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>201202</v>
       </c>
@@ -5183,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -5219,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>201203</v>
       </c>
@@ -5269,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>201204</v>
       </c>
@@ -5316,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>201205</v>
       </c>
@@ -5330,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -5366,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>201206</v>
       </c>
@@ -5413,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>201207</v>
       </c>
@@ -5460,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>201208</v>
       </c>
@@ -5510,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>201209</v>
       </c>
@@ -5524,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -5557,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>201210</v>
       </c>
@@ -5571,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -5604,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>201211</v>
       </c>
@@ -5654,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>201212</v>
       </c>
@@ -5668,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -5704,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>201301</v>
       </c>
@@ -5718,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -5754,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>201302</v>
       </c>
@@ -5801,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>201303</v>
       </c>
@@ -5815,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
@@ -5848,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>201304</v>
       </c>
@@ -5895,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>201305</v>
       </c>
@@ -5945,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>201306</v>
       </c>
@@ -5976,7 +5932,7 @@
       <c r="J112" t="b">
         <v>0</v>
       </c>
-      <c r="L112" s="2">
+      <c r="L112">
         <v>0</v>
       </c>
       <c r="M112" t="b">
@@ -5992,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>201307</v>
       </c>
@@ -6039,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>201308</v>
       </c>
@@ -6089,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>201309</v>
       </c>
@@ -6136,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>201310</v>
       </c>
@@ -6183,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>201311</v>
       </c>
@@ -6230,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>201312</v>
       </c>
@@ -6277,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>201401</v>
       </c>
@@ -6291,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -6324,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>201402</v>
       </c>
@@ -6374,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>201403</v>
       </c>
@@ -6424,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>201404</v>
       </c>
@@ -6474,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>201405</v>
       </c>
@@ -6524,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>201406</v>
       </c>
@@ -6538,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
@@ -6574,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>201407</v>
       </c>
@@ -6624,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>201408</v>
       </c>
@@ -6638,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
@@ -6674,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>201409</v>
       </c>
@@ -6724,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>201410</v>
       </c>
@@ -6738,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
@@ -6774,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="A129">
         <v>201411</v>
       </c>
@@ -6824,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="A130">
         <v>201412</v>
       </c>
@@ -6874,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="A131">
         <v>201501</v>
       </c>
@@ -6924,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16">
       <c r="A132">
         <v>201502</v>
       </c>
@@ -6974,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>201503</v>
       </c>
@@ -7024,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="A134">
         <v>201504</v>
       </c>
@@ -7074,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="A135">
         <v>201505</v>
       </c>
@@ -7124,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="A136">
         <v>201506</v>
       </c>
@@ -7174,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>201507</v>
       </c>
@@ -7224,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138">
         <v>201508</v>
       </c>
@@ -7274,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="A139">
         <v>201509</v>
       </c>
@@ -7324,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="A140">
         <v>201510</v>
       </c>
@@ -7374,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="A141">
         <v>201511</v>
       </c>
@@ -7421,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="A142">
         <v>201512</v>
       </c>
@@ -7471,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16">
       <c r="A143">
         <v>201601</v>
       </c>
@@ -7521,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144">
         <v>201602</v>
       </c>
@@ -7571,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="A145">
         <v>201603</v>
       </c>
@@ -7621,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="A146">
         <v>201604</v>
       </c>
@@ -7671,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="A147">
         <v>201605</v>
       </c>
@@ -7721,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="A148">
         <v>201606</v>
       </c>
@@ -7771,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16">
       <c r="A149">
         <v>201607</v>
       </c>
@@ -7821,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150">
         <v>201608</v>
       </c>
@@ -7871,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="A151">
         <v>201609</v>
       </c>
@@ -7921,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="A152">
         <v>201610</v>
       </c>
@@ -7971,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16">
       <c r="A153">
         <v>201611</v>
       </c>
@@ -8021,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154">
         <v>201612</v>
       </c>
@@ -8071,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="A155">
         <v>201701</v>
       </c>
@@ -8121,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="A156">
         <v>201702</v>
       </c>
@@ -8171,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16">
       <c r="A157">
         <v>201703</v>
       </c>
@@ -8221,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158">
         <v>201704</v>
       </c>
@@ -8271,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="A159">
         <v>201705</v>
       </c>
@@ -8321,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="A160">
         <v>201706</v>
       </c>
@@ -8371,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="A161">
         <v>201707</v>
       </c>
@@ -8421,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="A162">
         <v>201708</v>
       </c>
@@ -8471,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16">
       <c r="A163">
         <v>201709</v>
       </c>
@@ -8521,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164">
         <v>201710</v>
       </c>
@@ -8571,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="A165">
         <v>201711</v>
       </c>
@@ -8621,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="A166">
         <v>201712</v>
       </c>
@@ -8671,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="A167">
         <v>201801</v>
       </c>
@@ -8721,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="A168">
         <v>201802</v>
       </c>
@@ -8771,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="A169">
         <v>201803</v>
       </c>
@@ -8821,11 +8777,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="A170">
         <v>201804</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>0</v>
       </c>
       <c r="D170" t="b">
@@ -8868,11 +8824,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16">
       <c r="A171">
         <v>201805</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>0</v>
       </c>
       <c r="D171" t="b">
@@ -8915,11 +8871,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172">
         <v>201806</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>0</v>
       </c>
       <c r="D172" t="b">
@@ -8943,24 +8899,24 @@
       <c r="J172" t="b">
         <v>0</v>
       </c>
-      <c r="L172" s="2">
+      <c r="L172">
         <v>0</v>
       </c>
       <c r="M172" t="b">
         <v>1</v>
       </c>
-      <c r="O172" s="2">
+      <c r="O172">
         <v>0</v>
       </c>
       <c r="P172" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="A173">
         <v>201807</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>0</v>
       </c>
       <c r="D173" t="b">
@@ -8975,19 +8931,19 @@
       <c r="G173" t="b">
         <v>0</v>
       </c>
-      <c r="I173" s="2">
+      <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="b">
         <v>1</v>
       </c>
-      <c r="L173" s="2">
+      <c r="L173">
         <v>0</v>
       </c>
       <c r="M173" t="b">
         <v>0</v>
       </c>
-      <c r="O173" s="2">
+      <c r="O173">
         <v>0</v>
       </c>
       <c r="P173" t="b">
@@ -8995,20 +8951,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P173"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9058,7 +9013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="C2">
         <v>0</v>
       </c>
@@ -9075,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>5.9340000000000002</v>
+        <v>5.934</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -9084,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>14.856999999999999</v>
+        <v>14.857</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -9093,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>3.0449999999999999</v>
+        <v>3.045</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -9102,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="C3">
         <v>0</v>
       </c>
@@ -9119,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.9950000000000001</v>
+        <v>5.995</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -9137,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.0230000000000001</v>
+        <v>3.023</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -9146,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="C4">
         <v>0</v>
       </c>
@@ -9163,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.3159999999999998</v>
+        <v>6.316</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -9181,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.0880000000000001</v>
+        <v>3.088</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
@@ -9190,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="C5">
         <v>0</v>
       </c>
@@ -9207,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.0209999999999999</v>
+        <v>7.021</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -9225,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.1789999999999998</v>
+        <v>3.179</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
@@ -9234,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="C6">
         <v>0</v>
       </c>
@@ -9278,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="C7">
         <v>0</v>
       </c>
@@ -9295,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6.3150000000000004</v>
+        <v>6.315</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -9313,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.0859999999999999</v>
+        <v>3.086</v>
       </c>
       <c r="O7" t="s">
         <v>17</v>
@@ -9322,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="C8">
         <v>0</v>
       </c>
@@ -9339,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6.2009999999999996</v>
+        <v>6.201</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -9357,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.1560000000000001</v>
+        <v>3.156</v>
       </c>
       <c r="O8" t="s">
         <v>17</v>
@@ -9366,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="C9">
         <v>0</v>
       </c>
@@ -9383,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.6929999999999996</v>
+        <v>6.693</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -9401,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.3969999999999998</v>
+        <v>3.397</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
@@ -9410,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="C10">
         <v>0</v>
       </c>
@@ -9427,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6.6859999999999999</v>
+        <v>6.686</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -9445,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.6819999999999999</v>
+        <v>3.682</v>
       </c>
       <c r="O10" t="s">
         <v>17</v>
@@ -9454,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="B11">
         <v>76</v>
       </c>
@@ -9474,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.0629999999999997</v>
+        <v>7.063</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -9483,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.4290000000000003</v>
+        <v>6.429</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -9492,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.8039999999999998</v>
+        <v>3.804</v>
       </c>
       <c r="O11" t="s">
         <v>17</v>
@@ -9501,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="B12">
         <v>84</v>
       </c>
@@ -9521,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.1710000000000003</v>
+        <v>7.171</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -9530,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -9539,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.7690000000000001</v>
+        <v>3.769</v>
       </c>
       <c r="O12" t="s">
         <v>17</v>
@@ -9548,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="B13">
         <v>79</v>
       </c>
@@ -9559,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -9568,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.9409999999999998</v>
+        <v>6.941</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -9577,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -9586,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.8610000000000002</v>
+        <v>3.861</v>
       </c>
       <c r="O13" t="s">
         <v>17</v>
@@ -9595,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="B14">
         <v>85</v>
       </c>
@@ -9615,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.8840000000000003</v>
+        <v>6.884</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -9633,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.6960000000000002</v>
+        <v>3.696</v>
       </c>
       <c r="O14" t="s">
         <v>17</v>
@@ -9642,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>79</v>
       </c>
@@ -9680,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.7010000000000001</v>
+        <v>3.701</v>
       </c>
       <c r="O15" t="s">
         <v>17</v>
@@ -9689,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>88</v>
       </c>
@@ -9709,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5.9470000000000001</v>
+        <v>5.947</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -9718,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -9736,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16">
       <c r="B17">
         <v>105</v>
       </c>
@@ -9747,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -9774,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.4849999999999999</v>
+        <v>3.485</v>
       </c>
       <c r="O17" t="s">
         <v>17</v>
@@ -9783,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>100</v>
       </c>
@@ -9830,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>89</v>
       </c>
@@ -9841,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -9850,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6.5609999999999999</v>
+        <v>6.561</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -9874,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>88</v>
       </c>
@@ -9894,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6.5490000000000004</v>
+        <v>6.549</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -9909,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.4359999999999999</v>
+        <v>3.436</v>
       </c>
       <c r="O20" t="s">
         <v>17</v>
@@ -9918,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>92</v>
       </c>
@@ -9938,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6.3259999999999996</v>
+        <v>6.326</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -9962,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>97</v>
       </c>
@@ -9982,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6.3109999999999999</v>
+        <v>6.311</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -10006,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16">
       <c r="B23">
         <v>94</v>
       </c>
@@ -10026,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6.7489999999999997</v>
+        <v>6.749</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -10044,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>3.4079999999999999</v>
+        <v>3.408</v>
       </c>
       <c r="O23" t="s">
         <v>17</v>
@@ -10053,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16">
       <c r="B24">
         <v>109</v>
       </c>
@@ -10064,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -10091,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.3410000000000002</v>
+        <v>3.341</v>
       </c>
       <c r="O24" t="s">
         <v>17</v>
@@ -10100,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16">
       <c r="B25">
         <v>92</v>
       </c>
@@ -10111,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -10120,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.5330000000000004</v>
+        <v>6.533</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -10138,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.4420000000000002</v>
+        <v>3.442</v>
       </c>
       <c r="O25" t="s">
         <v>17</v>
@@ -10147,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16">
       <c r="B26">
         <v>103</v>
       </c>
@@ -10158,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -10167,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6.4409999999999998</v>
+        <v>6.441</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -10185,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3.4929999999999999</v>
+        <v>3.493</v>
       </c>
       <c r="O26" t="s">
         <v>17</v>
@@ -10194,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16">
       <c r="B27">
         <v>113</v>
       </c>
@@ -10241,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>89</v>
       </c>
@@ -10261,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6.5860000000000003</v>
+        <v>6.586</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -10279,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3.8260000000000001</v>
+        <v>3.826</v>
       </c>
       <c r="O28" t="s">
         <v>17</v>
@@ -10288,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16">
       <c r="B29">
         <v>90</v>
       </c>
@@ -10308,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6.2329999999999997</v>
+        <v>6.233</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -10326,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3.6160000000000001</v>
+        <v>3.616</v>
       </c>
       <c r="O29" t="s">
         <v>17</v>
@@ -10335,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16">
       <c r="B30">
         <v>92</v>
       </c>
@@ -10355,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6.1920000000000002</v>
+        <v>6.192</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -10373,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3.7879999999999998</v>
+        <v>3.788</v>
       </c>
       <c r="O30" t="s">
         <v>17</v>
@@ -10382,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16">
       <c r="B31">
         <v>109</v>
       </c>
@@ -10402,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6.7030000000000003</v>
+        <v>6.703</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -10429,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16">
       <c r="B32">
         <v>102</v>
       </c>
@@ -10440,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -10449,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6.5780000000000003</v>
+        <v>6.578</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -10467,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3.7330000000000001</v>
+        <v>3.733</v>
       </c>
       <c r="O32" t="s">
         <v>17</v>
@@ -10476,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16">
       <c r="B33">
         <v>117</v>
       </c>
@@ -10487,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -10496,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6.7149999999999999</v>
+        <v>6.715</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -10514,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3.7639999999999998</v>
+        <v>3.764</v>
       </c>
       <c r="O33" t="s">
         <v>17</v>
@@ -10523,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16">
       <c r="B34">
         <v>135</v>
       </c>
@@ -10561,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3.1579999999999999</v>
+        <v>3.158</v>
       </c>
       <c r="O34" t="s">
         <v>17</v>
@@ -10570,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16">
       <c r="B35">
         <v>121</v>
       </c>
@@ -10590,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>7.0919999999999996</v>
+        <v>7.092</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -10617,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16">
       <c r="B36">
         <v>149</v>
       </c>
@@ -10628,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -10637,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>7.2510000000000003</v>
+        <v>7.251</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -10664,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16">
       <c r="B37">
         <v>121</v>
       </c>
@@ -10684,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>7.4409999999999998</v>
+        <v>7.441</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -10711,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16">
       <c r="B38">
         <v>118</v>
       </c>
@@ -10722,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -10731,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7.0830000000000002</v>
+        <v>7.083</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -10749,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4.2889999999999997</v>
+        <v>4.289</v>
       </c>
       <c r="O38" t="s">
         <v>17</v>
@@ -10758,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16">
       <c r="B39">
         <v>105</v>
       </c>
@@ -10769,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -10778,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>7.3019999999999996</v>
+        <v>7.302</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -10805,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16">
       <c r="B40">
         <v>93</v>
       </c>
@@ -10816,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -10825,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>7.4509999999999996</v>
+        <v>7.451</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -10843,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4.5469999999999997</v>
+        <v>4.547</v>
       </c>
       <c r="O40" t="s">
         <v>17</v>
@@ -10852,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16">
       <c r="B41">
         <v>110</v>
       </c>
@@ -10872,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>7.5789999999999997</v>
+        <v>7.579</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -10899,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16">
       <c r="B42">
         <v>124</v>
       </c>
@@ -10919,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>7.5270000000000001</v>
+        <v>7.527</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -10937,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>4.6580000000000004</v>
+        <v>4.658</v>
       </c>
       <c r="O42" t="s">
         <v>17</v>
@@ -10946,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16">
       <c r="B43">
         <v>129</v>
       </c>
@@ -10984,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>4.6749999999999998</v>
+        <v>4.675</v>
       </c>
       <c r="O43" t="s">
         <v>17</v>
@@ -10993,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16">
       <c r="B44">
         <v>157</v>
       </c>
@@ -11031,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>4.9279999999999999</v>
+        <v>4.928</v>
       </c>
       <c r="O44" t="s">
         <v>17</v>
@@ -11040,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16">
       <c r="B45">
         <v>133</v>
       </c>
@@ -11060,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>8.2810000000000006</v>
+        <v>8.281000000000001</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -11087,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16">
       <c r="B46">
         <v>142</v>
       </c>
@@ -11107,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>8.6379999999999999</v>
+        <v>8.638</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -11125,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>5.4790000000000001</v>
+        <v>5.479</v>
       </c>
       <c r="O46" t="s">
         <v>17</v>
@@ -11134,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16">
       <c r="B47">
         <v>144</v>
       </c>
@@ -11145,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -11154,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>8.5630000000000006</v>
+        <v>8.563000000000001</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -11181,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16">
       <c r="B48">
         <v>122</v>
       </c>
@@ -11201,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>8.6910000000000007</v>
+        <v>8.691000000000001</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -11219,7 +11174,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>5.2119999999999997</v>
+        <v>5.212</v>
       </c>
       <c r="O48" t="s">
         <v>17</v>
@@ -11228,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16">
       <c r="B49">
         <v>125</v>
       </c>
@@ -11275,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16">
       <c r="B50">
         <v>121</v>
       </c>
@@ -11295,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>9.4649999999999999</v>
+        <v>9.465</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -11313,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>6.0670000000000002</v>
+        <v>6.067</v>
       </c>
       <c r="O50" t="s">
         <v>17</v>
@@ -11322,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16">
       <c r="B51">
         <v>212</v>
       </c>
@@ -11342,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>9.9670000000000005</v>
+        <v>9.967000000000001</v>
       </c>
       <c r="I51" t="s">
         <v>17</v>
@@ -11360,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>6.0830000000000002</v>
+        <v>6.083</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
@@ -11369,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16">
       <c r="B52">
         <v>127</v>
       </c>
@@ -11407,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>6.4880000000000004</v>
+        <v>6.488</v>
       </c>
       <c r="O52" t="s">
         <v>17</v>
@@ -11416,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16">
       <c r="B53">
         <v>144</v>
       </c>
@@ -11427,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -11436,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>9.6669999999999998</v>
+        <v>9.667</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
@@ -11454,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>6.7039999999999997</v>
+        <v>6.704</v>
       </c>
       <c r="O53" t="s">
         <v>17</v>
@@ -11463,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16">
       <c r="B54">
         <v>122</v>
       </c>
@@ -11474,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -11483,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>8.7080000000000002</v>
+        <v>8.708</v>
       </c>
       <c r="I54" t="s">
         <v>17</v>
@@ -11501,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>5.7240000000000002</v>
+        <v>5.724</v>
       </c>
       <c r="O54" t="s">
         <v>17</v>
@@ -11510,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16">
       <c r="B55">
         <v>116</v>
       </c>
@@ -11530,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>8.6189999999999998</v>
+        <v>8.619</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
@@ -11548,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>5.2549999999999999</v>
+        <v>5.255</v>
       </c>
       <c r="O55" t="s">
         <v>17</v>
@@ -11557,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16">
       <c r="B56">
         <v>124</v>
       </c>
@@ -11577,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>8.9489999999999998</v>
+        <v>8.949</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
@@ -11595,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>4.4269999999999996</v>
+        <v>4.427</v>
       </c>
       <c r="O56" t="s">
         <v>17</v>
@@ -11604,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16">
       <c r="B57">
         <v>150</v>
       </c>
@@ -11624,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>7.5380000000000003</v>
+        <v>7.538</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
@@ -11642,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>4.0110000000000001</v>
+        <v>4.011</v>
       </c>
       <c r="O57" t="s">
         <v>17</v>
@@ -11651,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16">
       <c r="B58">
         <v>320</v>
       </c>
@@ -11671,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>8.9139999999999997</v>
+        <v>8.914</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -11689,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>6.7290000000000001</v>
+        <v>6.729</v>
       </c>
       <c r="O58" t="s">
         <v>17</v>
@@ -11698,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16">
       <c r="B59">
         <v>130</v>
       </c>
@@ -11718,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>7.2050000000000001</v>
+        <v>7.205</v>
       </c>
       <c r="I59" t="s">
         <v>17</v>
@@ -11736,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <v>4.7930000000000001</v>
+        <v>4.793</v>
       </c>
       <c r="O59" t="s">
         <v>17</v>
@@ -11745,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16">
       <c r="B60">
         <v>127</v>
       </c>
@@ -11765,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>7.5449999999999999</v>
+        <v>7.545</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
@@ -11783,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>4.1779999999999999</v>
+        <v>4.178</v>
       </c>
       <c r="O60" t="s">
         <v>17</v>
@@ -11792,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16">
       <c r="B61">
         <v>91</v>
       </c>
@@ -11839,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16">
       <c r="B62">
         <v>113</v>
       </c>
@@ -11877,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>3.9430000000000001</v>
+        <v>3.943</v>
       </c>
       <c r="O62" t="s">
         <v>17</v>
@@ -11886,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16">
       <c r="B63">
         <v>130</v>
       </c>
@@ -11906,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>8.3629999999999995</v>
+        <v>8.363</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -11933,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16">
       <c r="B64">
         <v>100</v>
       </c>
@@ -11953,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>8.5259999999999998</v>
+        <v>8.526</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -11968,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>5.2169999999999996</v>
+        <v>5.217</v>
       </c>
       <c r="O64" t="s">
         <v>17</v>
@@ -11977,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16">
       <c r="B65">
         <v>97</v>
       </c>
@@ -11997,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>8.1509999999999998</v>
+        <v>8.151</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -12015,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5.5730000000000004</v>
+        <v>5.573</v>
       </c>
       <c r="O65" t="s">
         <v>17</v>
@@ -12024,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16">
       <c r="B66">
         <v>129</v>
       </c>
@@ -12044,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>7.9279999999999999</v>
+        <v>7.928</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -12059,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>5.5039999999999996</v>
+        <v>5.504</v>
       </c>
       <c r="O66" t="s">
         <v>17</v>
@@ -12068,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16">
       <c r="B67">
         <v>127</v>
       </c>
@@ -12115,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16">
       <c r="B68">
         <v>123</v>
       </c>
@@ -12153,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>5.7619999999999996</v>
+        <v>5.762</v>
       </c>
       <c r="O68" t="s">
         <v>17</v>
@@ -12162,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16">
       <c r="B69">
         <v>119</v>
       </c>
@@ -12182,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>9.1120000000000001</v>
+        <v>9.112</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -12200,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4.1909999999999998</v>
+        <v>4.191</v>
       </c>
       <c r="O69" t="s">
         <v>17</v>
@@ -12209,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16">
       <c r="B70">
         <v>153</v>
       </c>
@@ -12229,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>8.4909999999999997</v>
+        <v>8.491</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -12247,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>3.8660000000000001</v>
+        <v>3.866</v>
       </c>
       <c r="O70" t="s">
         <v>17</v>
@@ -12256,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16">
       <c r="B71">
         <v>3.06</v>
       </c>
@@ -12267,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -12303,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16">
       <c r="B72">
         <v>3.46</v>
       </c>
@@ -12323,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>7.7720000000000002</v>
+        <v>7.772</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
@@ -12350,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16">
       <c r="B73">
         <v>3.73</v>
       </c>
@@ -12370,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>7.9429999999999996</v>
+        <v>7.943</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -12388,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>5.0620000000000003</v>
+        <v>5.062</v>
       </c>
       <c r="O73" t="s">
         <v>17</v>
@@ -12397,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16">
       <c r="B74">
         <v>3.68</v>
       </c>
@@ -12417,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>7.8310000000000004</v>
+        <v>7.831</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -12426,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>75.667000000000002</v>
+        <v>75.667</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -12435,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>5.1589999999999998</v>
+        <v>5.159</v>
       </c>
       <c r="O74" t="s">
         <v>17</v>
@@ -12444,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16">
       <c r="B75">
         <v>3.38</v>
       </c>
@@ -12482,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>4.5910000000000002</v>
+        <v>4.591</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
@@ -12491,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16">
       <c r="B76">
         <v>3.45</v>
       </c>
@@ -12511,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>7.1820000000000004</v>
+        <v>7.182</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -12538,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16">
       <c r="B77">
         <v>3.19</v>
       </c>
@@ -12558,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>7.4969999999999999</v>
+        <v>7.497</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -12576,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>4.7389999999999999</v>
+        <v>4.739</v>
       </c>
       <c r="O77" t="s">
         <v>17</v>
@@ -12585,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16">
       <c r="B78">
         <v>3.09</v>
       </c>
@@ -12596,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -12605,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>7.1989999999999998</v>
+        <v>7.199</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -12623,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>5.3819999999999997</v>
+        <v>5.382</v>
       </c>
       <c r="O78" t="s">
         <v>17</v>
@@ -12632,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16">
       <c r="B79">
         <v>2.95</v>
       </c>
@@ -12652,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>7.2969999999999997</v>
+        <v>7.297</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -12670,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>5.1669999999999998</v>
+        <v>5.167</v>
       </c>
       <c r="O79" t="s">
         <v>17</v>
@@ -12679,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16">
       <c r="B80">
         <v>2.86</v>
       </c>
@@ -12699,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>8.1080000000000005</v>
+        <v>8.108000000000001</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -12717,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5.7380000000000004</v>
+        <v>5.738</v>
       </c>
       <c r="O80" t="s">
         <v>17</v>
@@ -12726,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16">
       <c r="B81">
         <v>2.95</v>
       </c>
@@ -12755,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -12764,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>5.6980000000000004</v>
+        <v>5.698</v>
       </c>
       <c r="O81" t="s">
         <v>17</v>
@@ -12773,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16">
       <c r="B82">
         <v>3.28</v>
       </c>
@@ -12808,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>5.9370000000000003</v>
+        <v>5.937</v>
       </c>
       <c r="O82" t="s">
         <v>17</v>
@@ -12817,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16">
       <c r="B83">
         <v>3.16</v>
       </c>
@@ -12828,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -12837,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>8.1379999999999999</v>
+        <v>8.138</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -12855,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>5.3109999999999999</v>
+        <v>5.311</v>
       </c>
       <c r="O83" t="s">
         <v>17</v>
@@ -12864,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16">
       <c r="B84">
         <v>3.5</v>
       </c>
@@ -12875,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -12899,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>5.7370000000000001</v>
+        <v>5.737</v>
       </c>
       <c r="O84" t="s">
         <v>17</v>
@@ -12908,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16">
       <c r="B85">
         <v>3.39</v>
       </c>
@@ -12928,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>8.5869999999999997</v>
+        <v>8.587</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -12952,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16">
       <c r="B86">
         <v>3.16</v>
       </c>
@@ -12972,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>8.8030000000000008</v>
+        <v>8.803000000000001</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -12981,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>87.332999999999998</v>
+        <v>87.333</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -12990,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>6.1349999999999998</v>
+        <v>6.135</v>
       </c>
       <c r="O86" t="s">
         <v>17</v>
@@ -12999,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16">
       <c r="B87">
         <v>3.67</v>
       </c>
@@ -13019,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>8.6739999999999995</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -13037,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>5.8239999999999998</v>
+        <v>5.824</v>
       </c>
       <c r="O87" t="s">
         <v>17</v>
@@ -13046,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16">
       <c r="B88">
         <v>3.38</v>
       </c>
@@ -13057,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -13066,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>9.4250000000000007</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -13084,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>5.9189999999999996</v>
+        <v>5.919</v>
       </c>
       <c r="O88" t="s">
         <v>17</v>
@@ -13093,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16">
       <c r="B89">
         <v>3.66</v>
       </c>
@@ -13104,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -13113,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>9.3460000000000001</v>
+        <v>9.346</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -13131,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>5.5510000000000002</v>
+        <v>5.551</v>
       </c>
       <c r="O89" t="s">
         <v>17</v>
@@ -13140,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16">
       <c r="B90">
         <v>3.61</v>
       </c>
@@ -13160,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>9.3859999999999992</v>
+        <v>9.385999999999999</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -13187,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16">
       <c r="B91">
         <v>3.25</v>
       </c>
@@ -13207,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>9.4890000000000008</v>
+        <v>9.489000000000001</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -13225,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>5.3330000000000002</v>
+        <v>5.333</v>
       </c>
       <c r="O91" t="s">
         <v>17</v>
@@ -13234,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16">
       <c r="B92">
         <v>3.37</v>
       </c>
@@ -13254,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>9.5730000000000004</v>
+        <v>9.573</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -13272,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>4.8540000000000001</v>
+        <v>4.854</v>
       </c>
       <c r="O92" t="s">
         <v>17</v>
@@ -13281,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16">
       <c r="B93">
         <v>3.46</v>
       </c>
@@ -13301,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>9.1869999999999994</v>
+        <v>9.186999999999999</v>
       </c>
       <c r="I93" t="s">
         <v>17</v>
@@ -13316,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>5.8929999999999998</v>
+        <v>5.893</v>
       </c>
       <c r="O93" t="s">
         <v>17</v>
@@ -13325,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16">
       <c r="B94">
         <v>3.44</v>
       </c>
@@ -13345,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>9.1679999999999993</v>
+        <v>9.167999999999999</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -13363,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>7.6420000000000003</v>
+        <v>7.642</v>
       </c>
       <c r="O94" t="s">
         <v>17</v>
@@ -13372,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16">
       <c r="B95">
         <v>3.73</v>
       </c>
@@ -13392,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7.7050000000000001</v>
+        <v>7.705</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -13416,7 +13371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16">
       <c r="B96">
         <v>4.09</v>
       </c>
@@ -13427,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -13436,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>7.7880000000000003</v>
+        <v>7.788</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -13445,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>157.19999999999999</v>
+        <v>157.2</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -13454,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>4.8710000000000004</v>
+        <v>4.871</v>
       </c>
       <c r="O96" t="s">
         <v>17</v>
@@ -13463,7 +13418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16">
       <c r="B97">
         <v>3.94</v>
       </c>
@@ -13501,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>4.9470000000000001</v>
+        <v>4.947</v>
       </c>
       <c r="O97" t="s">
         <v>17</v>
@@ -13510,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16">
       <c r="B98">
         <v>3.59</v>
       </c>
@@ -13530,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>8.3650000000000002</v>
+        <v>8.365</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -13545,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>5.1589999999999998</v>
+        <v>5.159</v>
       </c>
       <c r="O98" t="s">
         <v>17</v>
@@ -13554,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16">
       <c r="B99">
         <v>3.38</v>
       </c>
@@ -13565,7 +13520,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -13574,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>8.0169999999999995</v>
+        <v>8.016999999999999</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -13592,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>4.6319999999999997</v>
+        <v>4.632</v>
       </c>
       <c r="O99" t="s">
         <v>17</v>
@@ -13601,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16">
       <c r="B100">
         <v>3.4</v>
       </c>
@@ -13621,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>8.0519999999999996</v>
+        <v>8.052</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
@@ -13636,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>4.9109999999999996</v>
+        <v>4.911</v>
       </c>
       <c r="O100" t="s">
         <v>17</v>
@@ -13645,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16">
       <c r="B101">
         <v>3.28</v>
       </c>
@@ -13680,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="O101" t="s">
         <v>17</v>
@@ -13689,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16">
       <c r="B102">
         <v>3.5</v>
       </c>
@@ -13736,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16">
       <c r="B103">
         <v>3.61</v>
       </c>
@@ -13747,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -13756,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>10.007999999999999</v>
+        <v>10.008</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -13771,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>5.2309999999999999</v>
+        <v>5.231</v>
       </c>
       <c r="O103" t="s">
         <v>17</v>
@@ -13780,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16">
       <c r="B104">
         <v>3.38</v>
       </c>
@@ -13791,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -13824,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16">
       <c r="B105">
         <v>3.45</v>
       </c>
@@ -13844,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>7.8019999999999996</v>
+        <v>7.802</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -13862,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>4.9610000000000003</v>
+        <v>4.961</v>
       </c>
       <c r="O105" t="s">
         <v>17</v>
@@ -13871,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16">
       <c r="B106">
         <v>3.5</v>
       </c>
@@ -13882,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -13909,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>4.5659999999999998</v>
+        <v>4.566</v>
       </c>
       <c r="O106" t="s">
         <v>17</v>
@@ -13918,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16">
       <c r="B107">
         <v>3.23</v>
       </c>
@@ -13929,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -13938,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>11.183999999999999</v>
+        <v>11.184</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -13956,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>3.5449999999999999</v>
+        <v>3.545</v>
       </c>
       <c r="O107" t="s">
         <v>17</v>
@@ -13965,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16">
       <c r="B108">
         <v>3.62</v>
       </c>
@@ -13985,7 +13940,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>9.4079999999999995</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -14009,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16">
       <c r="B109">
         <v>3.38</v>
       </c>
@@ -14020,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
@@ -14029,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>9.4440000000000008</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -14053,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16">
       <c r="B110">
         <v>3.48</v>
       </c>
@@ -14073,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>8.5909999999999993</v>
+        <v>8.590999999999999</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
@@ -14088,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>3.4849999999999999</v>
+        <v>3.485</v>
       </c>
       <c r="O110" t="s">
         <v>17</v>
@@ -14097,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16">
       <c r="B111">
         <v>3.64</v>
       </c>
@@ -14144,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16">
       <c r="B112">
         <v>3.37</v>
       </c>
@@ -14164,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9.3109999999999999</v>
+        <v>9.311</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -14179,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <v>3.9279999999999999</v>
+        <v>3.928</v>
       </c>
       <c r="O112" t="s">
         <v>17</v>
@@ -14188,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16">
       <c r="B113">
         <v>3.59</v>
       </c>
@@ -14208,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>9.0229999999999997</v>
+        <v>9.023</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -14223,7 +14178,7 @@
         <v>1</v>
       </c>
       <c r="N113">
-        <v>4.1379999999999999</v>
+        <v>4.138</v>
       </c>
       <c r="O113" t="s">
         <v>17</v>
@@ -14232,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16">
       <c r="B114">
         <v>3.47</v>
       </c>
@@ -14252,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>8.7919999999999998</v>
+        <v>8.792</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -14270,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>3.7839999999999998</v>
+        <v>3.784</v>
       </c>
       <c r="O114" t="s">
         <v>17</v>
@@ -14279,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16">
       <c r="B115">
         <v>3.41</v>
       </c>
@@ -14314,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>3.5950000000000002</v>
+        <v>3.595</v>
       </c>
       <c r="O115" t="s">
         <v>17</v>
@@ -14323,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16">
       <c r="B116">
         <v>3.15</v>
       </c>
@@ -14343,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>8.8740000000000006</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="I116" t="s">
         <v>17</v>
@@ -14367,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16">
       <c r="B117">
         <v>3.23</v>
       </c>
@@ -14387,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>8.8330000000000002</v>
+        <v>8.833</v>
       </c>
       <c r="I117" t="s">
         <v>17</v>
@@ -14411,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16">
       <c r="B118">
         <v>3.42</v>
       </c>
@@ -14431,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>9.6959999999999997</v>
+        <v>9.696</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -14446,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="O118" t="s">
         <v>17</v>
@@ -14455,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16">
       <c r="B119">
         <v>3.68</v>
       </c>
@@ -14466,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -14475,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>9.2439999999999998</v>
+        <v>9.244</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -14490,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>3.8809999999999998</v>
+        <v>3.881</v>
       </c>
       <c r="O119" t="s">
         <v>17</v>
@@ -14499,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16">
       <c r="B120">
         <v>3.15</v>
       </c>
@@ -14519,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>9.6010000000000009</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -14528,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>79.332999999999998</v>
+        <v>79.333</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -14537,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>3.7879999999999998</v>
+        <v>3.788</v>
       </c>
       <c r="O120" t="s">
         <v>17</v>
@@ -14546,7 +14501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16">
       <c r="B121">
         <v>3.36</v>
       </c>
@@ -14566,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>9.1850000000000005</v>
+        <v>9.185</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -14593,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16">
       <c r="B122">
         <v>3.59</v>
       </c>
@@ -14631,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>3.9279999999999999</v>
+        <v>3.928</v>
       </c>
       <c r="O122" t="s">
         <v>17</v>
@@ -14640,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16">
       <c r="B123">
         <v>3.74</v>
       </c>
@@ -14660,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>9.8770000000000007</v>
+        <v>9.877000000000001</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -14687,7 +14642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16">
       <c r="B124">
         <v>3.6</v>
       </c>
@@ -14698,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
@@ -14707,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>9.5350000000000001</v>
+        <v>9.535</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -14734,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16">
       <c r="B125">
         <v>3.61</v>
       </c>
@@ -14754,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>9.5670000000000002</v>
+        <v>9.567</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -14772,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>3.8340000000000001</v>
+        <v>3.834</v>
       </c>
       <c r="O125" t="s">
         <v>17</v>
@@ -14781,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16">
       <c r="B126">
         <v>3.56</v>
       </c>
@@ -14792,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
@@ -14801,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>9.4870000000000001</v>
+        <v>9.487</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -14810,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>89.332999999999998</v>
+        <v>89.333</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -14819,7 +14774,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>3.7149999999999999</v>
+        <v>3.715</v>
       </c>
       <c r="O126" t="s">
         <v>17</v>
@@ -14828,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16">
       <c r="B127">
         <v>3.4</v>
       </c>
@@ -14848,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>9.0259999999999998</v>
+        <v>9.026</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
@@ -14857,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>87.167000000000002</v>
+        <v>87.167</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -14866,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>3.8159999999999998</v>
+        <v>3.816</v>
       </c>
       <c r="O127" t="s">
         <v>17</v>
@@ -14875,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16">
       <c r="B128">
         <v>3.52</v>
       </c>
@@ -14886,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
@@ -14895,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>8.8759999999999994</v>
+        <v>8.875999999999999</v>
       </c>
       <c r="I128" t="s">
         <v>17</v>
@@ -14913,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>3.5960000000000001</v>
+        <v>3.596</v>
       </c>
       <c r="O128" t="s">
         <v>17</v>
@@ -14922,7 +14877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16">
       <c r="B129">
         <v>3.43</v>
       </c>
@@ -14942,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>9.4909999999999997</v>
+        <v>9.491</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -14960,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="O129" t="s">
         <v>17</v>
@@ -14969,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16">
       <c r="B130">
         <v>3.7</v>
       </c>
@@ -14989,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>8.5969999999999995</v>
+        <v>8.597</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -15007,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>4.0730000000000004</v>
+        <v>4.073</v>
       </c>
       <c r="O130" t="s">
         <v>17</v>
@@ -15016,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16">
       <c r="B131">
         <v>3.49</v>
       </c>
@@ -15036,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>8.6519999999999992</v>
+        <v>8.651999999999999</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -15045,7 +15000,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>70.332999999999998</v>
+        <v>70.333</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -15054,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <v>3.3050000000000002</v>
+        <v>3.305</v>
       </c>
       <c r="O131" t="s">
         <v>17</v>
@@ -15063,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16">
       <c r="B132">
         <v>3.19</v>
       </c>
@@ -15083,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>9.2219999999999995</v>
+        <v>9.222</v>
       </c>
       <c r="I132" t="s">
         <v>17</v>
@@ -15092,7 +15047,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>76.167000000000002</v>
+        <v>76.167</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -15101,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <v>3.2549999999999999</v>
+        <v>3.255</v>
       </c>
       <c r="O132" t="s">
         <v>17</v>
@@ -15110,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16">
       <c r="B133">
         <v>3.41</v>
       </c>
@@ -15130,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>8.9390000000000001</v>
+        <v>8.939</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -15139,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>92.332999999999998</v>
+        <v>92.333</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -15148,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>2.9039999999999999</v>
+        <v>2.904</v>
       </c>
       <c r="O133" t="s">
         <v>17</v>
@@ -15157,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16">
       <c r="B134">
         <v>3.45</v>
       </c>
@@ -15177,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>8.2059999999999995</v>
+        <v>8.206</v>
       </c>
       <c r="I134" t="s">
         <v>17</v>
@@ -15195,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="N134">
-        <v>3.0049999999999999</v>
+        <v>3.005</v>
       </c>
       <c r="O134" t="s">
         <v>17</v>
@@ -15204,7 +15159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16">
       <c r="B135">
         <v>3.6</v>
       </c>
@@ -15224,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>8.6669999999999998</v>
+        <v>8.667</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -15242,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>3.1509999999999998</v>
+        <v>3.151</v>
       </c>
       <c r="O135" t="s">
         <v>17</v>
@@ -15251,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16">
       <c r="B136">
         <v>3.4</v>
       </c>
@@ -15271,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>9.0359999999999996</v>
+        <v>9.036</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -15280,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -15289,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <v>3.1739999999999999</v>
+        <v>3.174</v>
       </c>
       <c r="O136" t="s">
         <v>17</v>
@@ -15298,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16">
       <c r="B137">
         <v>3.47</v>
       </c>
@@ -15318,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>9.1829999999999998</v>
+        <v>9.183</v>
       </c>
       <c r="I137" t="s">
         <v>17</v>
@@ -15345,7 +15300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16">
       <c r="B138">
         <v>3.58</v>
       </c>
@@ -15374,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>76.332999999999998</v>
+        <v>76.333</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -15392,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16">
       <c r="B139">
         <v>3.27</v>
       </c>
@@ -15412,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>7.6829999999999998</v>
+        <v>7.683</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
@@ -15439,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16">
       <c r="B140">
         <v>3.26</v>
       </c>
@@ -15459,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>8.1389999999999993</v>
+        <v>8.138999999999999</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -15486,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16">
       <c r="B141">
         <v>3.37</v>
       </c>
@@ -15506,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>7.9279999999999999</v>
+        <v>7.928</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -15521,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>2.7770000000000001</v>
+        <v>2.777</v>
       </c>
       <c r="O141" t="s">
         <v>17</v>
@@ -15530,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16">
       <c r="B142">
         <v>3.9</v>
       </c>
@@ -15550,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>8.3059999999999992</v>
+        <v>8.305999999999999</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -15568,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>2.8279999999999998</v>
+        <v>2.828</v>
       </c>
       <c r="O142" t="s">
         <v>17</v>
@@ -15577,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16">
       <c r="B143">
         <v>3.1</v>
       </c>
@@ -15597,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>9.1379999999999999</v>
+        <v>9.138</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -15615,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <v>3.1680000000000001</v>
+        <v>3.168</v>
       </c>
       <c r="O143" t="s">
         <v>17</v>
@@ -15624,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16">
       <c r="B144">
         <v>2.92</v>
       </c>
@@ -15644,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>8.3030000000000008</v>
+        <v>8.303000000000001</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -15653,7 +15608,7 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>17.609000000000002</v>
+        <v>17.609</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -15662,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>3.0489999999999999</v>
+        <v>3.049</v>
       </c>
       <c r="O144" t="s">
         <v>17</v>
@@ -15671,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16">
       <c r="B145">
         <v>3.16</v>
       </c>
@@ -15691,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>8.3130000000000006</v>
+        <v>8.313000000000001</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -15700,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>49.570999999999998</v>
+        <v>49.571</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -15709,7 +15664,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>3.4049999999999998</v>
+        <v>3.405</v>
       </c>
       <c r="O145" t="s">
         <v>17</v>
@@ -15718,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16">
       <c r="B146">
         <v>3.07</v>
       </c>
@@ -15738,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>9.4130000000000003</v>
+        <v>9.413</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -15747,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>54.832999999999998</v>
+        <v>54.833</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -15765,7 +15720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16">
       <c r="B147">
         <v>2.88</v>
       </c>
@@ -15785,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>8.3930000000000007</v>
+        <v>8.393000000000001</v>
       </c>
       <c r="I147" t="s">
         <v>17</v>
@@ -15812,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16">
       <c r="B148">
         <v>2.92</v>
       </c>
@@ -15832,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>9.0370000000000008</v>
+        <v>9.037000000000001</v>
       </c>
       <c r="I148" t="s">
         <v>17</v>
@@ -15841,7 +15796,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>84.667000000000002</v>
+        <v>84.667</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -15850,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>3.4849999999999999</v>
+        <v>3.485</v>
       </c>
       <c r="O148" t="s">
         <v>17</v>
@@ -15859,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16">
       <c r="B149">
         <v>2.94</v>
       </c>
@@ -15897,7 +15852,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>3.3940000000000001</v>
+        <v>3.394</v>
       </c>
       <c r="O149" t="s">
         <v>17</v>
@@ -15906,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16">
       <c r="B150">
         <v>3.12</v>
       </c>
@@ -15944,7 +15899,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>3.2120000000000002</v>
+        <v>3.212</v>
       </c>
       <c r="O150" t="s">
         <v>17</v>
@@ -15953,7 +15908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16">
       <c r="B151">
         <v>3.16</v>
       </c>
@@ -15973,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>7.7880000000000003</v>
+        <v>7.788</v>
       </c>
       <c r="I151" t="s">
         <v>17</v>
@@ -15991,7 +15946,7 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <v>3.1560000000000001</v>
+        <v>3.156</v>
       </c>
       <c r="O151" t="s">
         <v>17</v>
@@ -16000,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16">
       <c r="B152">
         <v>2.74</v>
       </c>
@@ -16020,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>7.0430000000000001</v>
+        <v>7.043</v>
       </c>
       <c r="I152" t="s">
         <v>17</v>
@@ -16038,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <v>3.2160000000000002</v>
+        <v>3.216</v>
       </c>
       <c r="O152" t="s">
         <v>17</v>
@@ -16047,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16">
       <c r="B153">
         <v>2.83</v>
       </c>
@@ -16085,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <v>2.8090000000000002</v>
+        <v>2.809</v>
       </c>
       <c r="O153" t="s">
         <v>17</v>
@@ -16094,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16">
       <c r="B154">
         <v>3.14</v>
       </c>
@@ -16114,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>6.9429999999999996</v>
+        <v>6.943</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -16141,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16">
       <c r="B155">
         <v>3.25</v>
       </c>
@@ -16170,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>11.388999999999999</v>
+        <v>11.389</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
@@ -16179,7 +16134,7 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <v>2.7759999999999998</v>
+        <v>2.776</v>
       </c>
       <c r="O155" t="s">
         <v>17</v>
@@ -16188,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16">
       <c r="B156">
         <v>2.63</v>
       </c>
@@ -16208,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>7.5460000000000003</v>
+        <v>7.546</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -16226,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="N156">
-        <v>2.8079999999999998</v>
+        <v>2.808</v>
       </c>
       <c r="O156" t="s">
         <v>17</v>
@@ -16235,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16">
       <c r="B157">
         <v>3.2</v>
       </c>
@@ -16255,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>7.3959999999999999</v>
+        <v>7.396</v>
       </c>
       <c r="I157" t="s">
         <v>17</v>
@@ -16264,7 +16219,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>17.033000000000001</v>
+        <v>17.033</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -16273,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <v>2.7709999999999999</v>
+        <v>2.771</v>
       </c>
       <c r="O157" t="s">
         <v>17</v>
@@ -16282,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16">
       <c r="B158">
         <v>2.84</v>
       </c>
@@ -16302,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>7.1079999999999997</v>
+        <v>7.108</v>
       </c>
       <c r="I158" t="s">
         <v>17</v>
@@ -16311,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>17.216999999999999</v>
+        <v>17.217</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
@@ -16320,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <v>2.8889999999999998</v>
+        <v>2.889</v>
       </c>
       <c r="O158" t="s">
         <v>17</v>
@@ -16329,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16">
       <c r="B159">
         <v>2.96</v>
       </c>
@@ -16358,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>12.558999999999999</v>
+        <v>12.559</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -16367,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <v>2.9009999999999998</v>
+        <v>2.901</v>
       </c>
       <c r="O159" t="s">
         <v>17</v>
@@ -16376,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16">
       <c r="B160">
         <v>3.17</v>
       </c>
@@ -16396,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>7.0620000000000003</v>
+        <v>7.062</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
@@ -16405,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -16423,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16">
       <c r="B161">
         <v>3.07</v>
       </c>
@@ -16443,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>6.7629999999999999</v>
+        <v>6.763</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -16461,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="N161">
-        <v>3.4369999999999998</v>
+        <v>3.437</v>
       </c>
       <c r="O161" t="s">
         <v>17</v>
@@ -16470,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16">
       <c r="B162">
         <v>2.79</v>
       </c>
@@ -16490,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>6.7069999999999999</v>
+        <v>6.707</v>
       </c>
       <c r="I162" t="s">
         <v>17</v>
@@ -16508,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <v>3.3730000000000002</v>
+        <v>3.373</v>
       </c>
       <c r="O162" t="s">
         <v>17</v>
@@ -16517,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16">
       <c r="B163">
         <v>2.97</v>
       </c>
@@ -16555,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <v>3.4359999999999999</v>
+        <v>3.436</v>
       </c>
       <c r="O163" t="s">
         <v>17</v>
@@ -16564,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16">
       <c r="B164">
         <v>2.75</v>
       </c>
@@ -16584,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>7.4649999999999999</v>
+        <v>7.465</v>
       </c>
       <c r="I164" t="s">
         <v>17</v>
@@ -16593,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>5.2859999999999996</v>
+        <v>5.286</v>
       </c>
       <c r="L164" t="s">
         <v>17</v>
@@ -16602,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="N164">
-        <v>3.0979999999999999</v>
+        <v>3.098</v>
       </c>
       <c r="O164" t="s">
         <v>17</v>
@@ -16611,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16">
       <c r="B165">
         <v>2.5</v>
       </c>
@@ -16631,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>7.9710000000000001</v>
+        <v>7.971</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -16640,7 +16595,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>29.295999999999999</v>
+        <v>29.296</v>
       </c>
       <c r="L165" t="s">
         <v>17</v>
@@ -16649,7 +16604,7 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <v>4.3819999999999997</v>
+        <v>4.382</v>
       </c>
       <c r="O165" t="s">
         <v>17</v>
@@ -16658,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16">
       <c r="B166">
         <v>3.12</v>
       </c>
@@ -16678,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>7.6950000000000003</v>
+        <v>7.695</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -16696,7 +16651,7 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <v>4.3090000000000002</v>
+        <v>4.309</v>
       </c>
       <c r="O166" t="s">
         <v>17</v>
@@ -16705,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16">
       <c r="B167">
         <v>3.13</v>
       </c>
@@ -16725,7 +16680,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>8.1850000000000005</v>
+        <v>8.185</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
@@ -16752,7 +16707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16">
       <c r="B168">
         <v>3.23</v>
       </c>
@@ -16772,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>8.7729999999999997</v>
+        <v>8.773</v>
       </c>
       <c r="I168" t="s">
         <v>17</v>
@@ -16799,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16">
       <c r="B169">
         <v>3.32</v>
       </c>
@@ -16819,7 +16774,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>8.3729999999999993</v>
+        <v>8.372999999999999</v>
       </c>
       <c r="I169" t="s">
         <v>17</v>
@@ -16846,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16">
       <c r="C170">
         <v>0</v>
       </c>
@@ -16863,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>9.3260000000000005</v>
+        <v>9.326000000000001</v>
       </c>
       <c r="I170" t="s">
         <v>17</v>
@@ -16890,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16">
       <c r="C171">
         <v>0</v>
       </c>
@@ -16907,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>9.1790000000000003</v>
+        <v>9.179</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -16934,7 +16889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16">
       <c r="C172">
         <v>0</v>
       </c>
@@ -16951,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>9.1440000000000001</v>
+        <v>9.144</v>
       </c>
       <c r="I172" t="s">
         <v>17</v>
@@ -16972,7 +16927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16">
       <c r="C173">
         <v>0</v>
       </c>
